--- a/data/trans_bre/P28A_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P28A_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-68,86%</t>
+          <t>-73,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,02%</t>
+          <t>49,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>59,04%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>-9,47%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 0,35</t>
+          <t>-6,88; -0,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 15,12</t>
+          <t>-6,01; 9,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 9,18</t>
+          <t>-2,92; 6,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 13,76</t>
+          <t>-5,3; 7,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 8,64</t>
+          <t>-6,86; 5,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 122,17</t>
+          <t>-100,0; 56,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 128,54</t>
+          <t>-41,35; 112,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,29; 603,03</t>
+          <t>-64,71; 605,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 292,83</t>
+          <t>-53,46; 194,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-73,34; 243,51</t>
+          <t>-76,36; 281,63</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,24</t>
+          <t>-8,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,87</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>-7,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-39,95%</t>
+          <t>-57,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>157,56%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-38,04%</t>
+          <t>-58,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-69,37%</t>
+          <t>-78,88%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 11,1</t>
+          <t>-5,81; 4,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 1,66</t>
+          <t>-18,95; -1,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 11,44</t>
+          <t>-1,14; 5,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 3,49</t>
+          <t>-6,29; 0,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -0,08</t>
+          <t>-12,42; -1,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,72; 165,16</t>
+          <t>-57,43; 92,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-77,31; 11,69</t>
+          <t>-83,93; -12,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 824,24</t>
+          <t>-41,96; 641,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-86,48; 108,57</t>
+          <t>-90,91; 58,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 41,3</t>
+          <t>-100,0; -18,41</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-33,47%</t>
+          <t>-46,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-28,85%</t>
+          <t>-54,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>-25,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-50,62%</t>
+          <t>-60,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>63,64%</t>
+          <t>18,14%</t>
         </is>
       </c>
     </row>
@@ -934,52 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 1,11</t>
+          <t>-12,64; -2,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 3,55</t>
+          <t>-8,42; -0,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,99</t>
+          <t>-3,79; 1,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,8</t>
+          <t>-4,61; -0,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 8,81</t>
+          <t>-2,48; 3,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-55,83; 7,56</t>
+          <t>-65,49; -14,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,34; 44,97</t>
+          <t>-78,47; -2,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,3; 332,02</t>
+          <t>-85,63; 127,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-87,67; 42,58</t>
+          <t>-89,29; 7,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 364,99</t>
+          <t>-58,64; 234,92</t>
         </is>
       </c>
     </row>
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,89%</t>
+          <t>-47,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>-39,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>211,52%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-63,67%</t>
+          <t>-77,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>-41,2%</t>
         </is>
       </c>
     </row>
@@ -1054,37 +1054,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 3,13</t>
+          <t>-7,73; -0,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 5,2</t>
+          <t>-6,02; 1,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,58</t>
+          <t>-0,75; 2,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 0,57</t>
+          <t>-5,96; -0,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 7,86</t>
+          <t>-5,81; 1,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,39; 40,92</t>
+          <t>-71,82; -0,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,1; 117,46</t>
+          <t>-74,68; 37,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-64,07; 249,66</t>
+          <t>-84,13; 59,6</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>-19,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>74,01%</t>
+          <t>-21,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>267,43%</t>
+          <t>115,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>294,45%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>-21,81%</t>
         </is>
       </c>
     </row>
@@ -1174,37 +1174,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 11,38</t>
+          <t>-4,85; 2,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 10,48</t>
+          <t>-3,16; 2,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 6,11</t>
+          <t>-0,68; 1,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 5,17</t>
+          <t>-0,79; 1,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,57</t>
+          <t>-1,8; 0,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 229,6</t>
+          <t>-71,46; 89,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-69,61; 842,15</t>
+          <t>-89,96; 273,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1236,22 +1236,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>-52,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-42,8%</t>
+          <t>-81,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>127,37%</t>
+          <t>-9,01%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1294,22 +1294,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 7,59</t>
+          <t>-2,73; 0,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 6,2</t>
+          <t>-4,38; -0,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,0</t>
+          <t>-2,83; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,55</t>
+          <t>-1,4; 0,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1356,52 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>-41,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>-42,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>79,46%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>-32,09%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-8,14%</t>
+          <t>-42,68%</t>
         </is>
       </c>
     </row>
@@ -1414,52 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 1,64</t>
+          <t>-4,73; -1,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,84</t>
+          <t>-5,61; -1,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,62</t>
+          <t>-0,63; 1,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,51</t>
+          <t>-2,23; 0,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,35</t>
+          <t>-3,22; -0,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 17,11</t>
+          <t>-57,41; -22,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 31,02</t>
+          <t>-60,41; -17,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 209,61</t>
+          <t>-30,0; 126,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 80,73</t>
+          <t>-60,03; 19,8</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-46,18; 54,03</t>
+          <t>-68,54; -3,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
